--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail10 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>8.487039822634738e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1.286644910110769</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.8285031011367479</v>
+        <v>7.023526991489593e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.01761959217208591</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.023526991489593e-06</v>
+        <v>0.21952843367257</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01761959217208591</v>
+        <v>0.04848540888276826</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.21952843367257</v>
+        <v>1.913036447402437</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04848540888276826</v>
+        <v>2.573753282453486</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.941213976270447</v>
+        <v>4.642118614129201</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.573753282453486</v>
+        <v>4.247708735887148e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.642118614129201</v>
+        <v>1186799822.331596</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.247708735887148e-16</v>
+        <v>1.011872890837566e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1186799822.331596</v>
+        <v>598.2871496377792</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.011872890837566e-07</v>
+        <v>0.0001301402203872838</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>598.2871496377792</v>
+        <v>8.776769399062093</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001301402203872838</v>
+        <v>1.37573129964511</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.776769399062093</v>
+        <v>0.01002491995311542</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.37573129964511</v>
+        <v>3.734584510251805</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01002491995311542</v>
+        <v>0.9637865355477825</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.734584510251805</v>
+        <v>1.029439287127576</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9637865355477825</v>
+        <v>132</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.029439287127576</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>1.673906546983009</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>8.449142162032621e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>1.26716317047949</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.8164165828482757</v>
+        <v>7.024763366073784e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.01229488379162342</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.024763366073784e-06</v>
+        <v>0.2141524561304485</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01229488379162342</v>
+        <v>0.04600427562770862</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2141524561304485</v>
+        <v>1.914927702200448</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.04600427562770862</v>
+        <v>2.62730851483237</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.942358931276364</v>
+        <v>4.575144958153253</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.62730851483237</v>
+        <v>4.461479089822518e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.575144958153253</v>
+        <v>1128337685.354762</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.461479089822518e-16</v>
+        <v>1.065087828925843e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1128337685.354762</v>
+        <v>568.0113954766057</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.065087828925843e-07</v>
+        <v>0.0001366975734490992</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>568.0113954766057</v>
+        <v>10.53808693037097</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001366975734490992</v>
+        <v>1.143149212748429</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.53808693037097</v>
+        <v>0.0151804399784118</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.143149212748429</v>
+        <v>3.547829102999692</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0151804399784118</v>
+        <v>0.9631781959898478</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.547829102999692</v>
+        <v>1.0803740708308</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9631781959898478</v>
+        <v>132</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.0803740708308</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.574604687592729</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>8.441376135006036e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.238658045368031</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7737804103255863</v>
+        <v>7.025706055055693e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.0106481817586471</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.025706055055693e-06</v>
+        <v>0.2128077914731233</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0106481817586471</v>
+        <v>0.04539672719702221</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2128077914731233</v>
+        <v>1.913082425724916</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04539672719702221</v>
+        <v>2.592893629973571</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.941196516223387</v>
+        <v>4.560550821030154</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.592893629973571</v>
+        <v>4.828436099875935e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.560550821030154</v>
+        <v>1021066958.342964</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.828436099875935e-16</v>
+        <v>1.176615978404804e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1021066958.342964</v>
+        <v>503.4019964970757</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.176615978404804e-07</v>
+        <v>0.0001419514549614651</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>503.4019964970757</v>
+        <v>12.37821012610476</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001419514549614651</v>
+        <v>1.052696739654124</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.37821012610476</v>
+        <v>0.02174981412651674</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.052696739654124</v>
+        <v>3.503835834708896</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.02174981412651674</v>
+        <v>0.9614151261560814</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.503835834708896</v>
+        <v>1.089418154329425</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9614151261560814</v>
+        <v>132</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.089418154329425</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>132</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>1.696922866913772</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>8.448909388022923e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.203724211393937</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.7068810439441271</v>
+        <v>7.026637692044895e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.0118084972596975</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.026637692044895e-06</v>
+        <v>0.2132526790606646</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.0118084972596975</v>
+        <v>0.04561431128994206</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2132526790606646</v>
+        <v>1.91329231299441</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04561431128994206</v>
+        <v>2.625102971447555</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.93339766745462</v>
+        <v>4.602898305825843</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.625102971447555</v>
+        <v>4.739999849144415e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.602898305825843</v>
+        <v>1037270837.063714</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.739999849144415e-16</v>
+        <v>1.159095365989864e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1037270837.063714</v>
+        <v>509.9911779554178</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.159095365989864e-07</v>
+        <v>0.0001396224360772749</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>509.9911779554178</v>
+        <v>11.72922717133681</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001396224360772749</v>
+        <v>1.173490452834459</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.72922717133681</v>
+        <v>0.0192085245353125</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.173490452834459</v>
+        <v>3.637254356629132</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0192085245353125</v>
+        <v>0.9625263434464351</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.637254356629132</v>
+        <v>1.141305783355627</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9625263434464351</v>
+        <v>143</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.141305783355627</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>1.707722717435264</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>8.467629647330502e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1.159703023362447</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.6140946550926021</v>
+        <v>7.027746732340208e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.01464581544495775</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.027746732340208e-06</v>
+        <v>0.2134195275816177</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01464581544495775</v>
+        <v>0.04576085106754424</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2134195275816177</v>
+        <v>1.915395687895039</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.04576085106754424</v>
+        <v>2.736074277941419</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.935509688962674</v>
+        <v>4.439032684045718</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.736074277941419</v>
+        <v>5.09641050566477e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.439032684045718</v>
+        <v>975471363.5628563</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.09641050566477e-16</v>
+        <v>1.230746660022535e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>975471363.5628563</v>
+        <v>484.9460780603218</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.230746660022535e-07</v>
+        <v>0.0001420006657583692</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>484.9460780603218</v>
+        <v>8.55119060745074</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001420006657583692</v>
+        <v>1.651024643883437</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.55119060745074</v>
+        <v>0.01038349491645999</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.651024643883437</v>
+        <v>3.62430115216091</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01038349491645999</v>
+        <v>0.9639059634563533</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.62430115216091</v>
+        <v>1.164388832237991</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9639059634563533</v>
+        <v>143</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.164388832237991</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>1.383461647115541</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>8.493956507744207e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.105374937438592</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.4984554445630884</v>
+        <v>7.029150646884966e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.01862808744225549</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.029150646884966e-06</v>
+        <v>0.2126659121610051</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01862808744225549</v>
+        <v>0.04557146905339964</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2126659121610051</v>
+        <v>1.917365982916579</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04557146905339964</v>
+        <v>2.621035466880061</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.940220008597839</v>
+        <v>4.522656310857364</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.621035466880061</v>
+        <v>4.909688244401874e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.522656310857364</v>
+        <v>975664446.3511806</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.909688244401874e-16</v>
+        <v>1.228100300615288e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>975664446.3511806</v>
+        <v>467.363589256454</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.228100300615288e-07</v>
+        <v>0.0001318458924539645</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>467.363589256454</v>
+        <v>7.440034399619379</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001318458924539645</v>
+        <v>1.485922681660594</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>7.440034399619379</v>
+        <v>0.007298212280169722</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.485922681660594</v>
+        <v>3.478906087196608</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007298212280169722</v>
+        <v>0.9644659555456977</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.478906087196608</v>
+        <v>1.195267233427995</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9644659555456977</v>
+        <v>181</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.195267233427995</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>181</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>1.163427814712537</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>8.523105898612633e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.041702944887931</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.3675640283794364</v>
+        <v>7.030926006986682e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.02303825425818391</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.030926006986682e-06</v>
+        <v>0.211083988752466</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.02303825425818391</v>
+        <v>0.04508500372180181</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.211083988752466</v>
+        <v>1.912050753036629</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.04508500372180181</v>
+        <v>2.360388147195763</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.936152773377288</v>
+        <v>5.540691337115777</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>2.360388147195763</v>
+        <v>5.551425762518387e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.540691337115777</v>
+        <v>901125146.6224502</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.551425762518387e-16</v>
+        <v>1.327697888512551e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>901125146.6224502</v>
+        <v>450.7904997798327</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.327697888512551e-07</v>
+        <v>0.0001298975396622972</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>450.7904997798327</v>
+        <v>7.955867994297456</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001298975396622972</v>
+        <v>1.267322336047086</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.955867994297456</v>
+        <v>0.008221973307864373</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.267322336047086</v>
+        <v>3.346882086572111</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.008221973307864373</v>
+        <v>0.9643274934650249</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.346882086572111</v>
+        <v>1.194964008309747</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9643274934650249</v>
+        <v>181</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.194964008309747</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>181</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.9976194273890859</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>8.544908872621936e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9740014529487661</v>
+        <v>3.243777825872724e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.2390485532246363</v>
+        <v>7.033054239509096e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.243777825872724e-07</v>
+        <v>0.02662241081012499</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.033054239509096e-06</v>
+        <v>0.2091737351713746</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02662241081012499</v>
+        <v>0.04446081967178011</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2091737351713746</v>
+        <v>1.912347895084217</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.04446081967178011</v>
+        <v>2.545413809042018</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.935234363303661</v>
+        <v>4.898723392934407</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.545413809042018</v>
+        <v>7.101770199265441e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.898723392934407</v>
+        <v>701808163.1702874</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.101770199265441e-16</v>
+        <v>1.705331718090587e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>701808163.1702874</v>
+        <v>349.7868239596827</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.705331718090587e-07</v>
+        <v>0.0001214510317032011</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>349.7868239596827</v>
+        <v>9.054702077791516</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001214510317032011</v>
+        <v>1.211074675321429</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.054702077791516</v>
+        <v>0.009957482216097931</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.211074675321429</v>
+        <v>3.409227871741456</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.009957482216097931</v>
+        <v>0.9639928336158566</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.409227871741456</v>
+        <v>1.215216029032247</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9639928336158566</v>
+        <v>159</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.215216029032247</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>1.02299430554445</v>
       </c>
     </row>
@@ -1673,7 +1613,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.426621513670248</v>
+        <v>1.364783253444507</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.590367947732755</v>
@@ -1762,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.431970048985155</v>
+        <v>1.363842097063603</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.438702736236692</v>
@@ -1851,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.43905992170469</v>
+        <v>1.358293532052091</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.908267484163987</v>
@@ -1940,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.440539094346055</v>
+        <v>1.363300837184501</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.544406044796363</v>
@@ -2029,7 +1969,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.430308345669354</v>
+        <v>1.352790676352517</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.636327038670443</v>
@@ -2118,7 +2058,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.445676622316119</v>
+        <v>1.363738947077662</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.051546807876874</v>
@@ -2207,7 +2147,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.459996878018872</v>
+        <v>1.369922214124717</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.014449371548727</v>
@@ -2296,7 +2236,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.471358160637851</v>
+        <v>1.381773519896126</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.598439895923791</v>
@@ -2385,7 +2325,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.469375280952735</v>
+        <v>1.377837777183966</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.023065372092555</v>
@@ -2474,7 +2414,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.46562595845628</v>
+        <v>1.3719441945771</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.045394492921423</v>
@@ -2563,7 +2503,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.456215201392836</v>
+        <v>1.361810932518834</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.005381075216636</v>
@@ -2652,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.452233418837684</v>
+        <v>1.344842348192294</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.642241977328381</v>
@@ -2741,7 +2681,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.337051435956625</v>
+        <v>1.281709467828789</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.674581919234626</v>
@@ -2830,7 +2770,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.330728743509956</v>
+        <v>1.281232268886808</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.706633823062932</v>
@@ -2919,7 +2859,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.337330315908003</v>
+        <v>1.287073159950672</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.703998876823448</v>
@@ -3008,7 +2948,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.347067438789459</v>
+        <v>1.297217949561427</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.70379973262737</v>
@@ -3097,7 +3037,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.34458890838134</v>
+        <v>1.298282875432184</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.672897921328999</v>
@@ -3186,7 +3126,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.34055335024557</v>
+        <v>1.299700554316888</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.673316418440238</v>
@@ -3275,7 +3215,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.345211983924977</v>
+        <v>1.304952837013065</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.66965311481784</v>
@@ -3364,7 +3304,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.353692032832149</v>
+        <v>1.313123293926451</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.670861685496532</v>
@@ -3453,7 +3393,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.353575977216511</v>
+        <v>1.316784840403069</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.656826312876335</v>
@@ -3542,7 +3482,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.354443028430825</v>
+        <v>1.320879660770898</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.667466397690653</v>
@@ -3631,7 +3571,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.354698193990903</v>
+        <v>1.323504908833321</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.643709368765893</v>
@@ -3720,7 +3660,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.356712136977455</v>
+        <v>1.32980068876146</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.658231222715242</v>
@@ -3809,7 +3749,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.363280307659962</v>
+        <v>1.339162556076704</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.642483345180608</v>
@@ -3898,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.364426780883615</v>
+        <v>1.341991345406458</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.665331293075</v>
@@ -3987,7 +3927,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.471619514951024</v>
+        <v>1.434471910265498</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.470986503942661</v>
@@ -4076,7 +4016,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.569587689559983</v>
+        <v>1.506357066698609</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.775703706667485</v>
@@ -4165,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.588626867811779</v>
+        <v>1.52032537203096</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.255355410180228</v>
@@ -4254,7 +4194,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.604208330579696</v>
+        <v>1.533675243816897</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.306322797724366</v>
@@ -4343,7 +4283,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.586768931834775</v>
+        <v>1.522265524780599</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.997804902868212</v>
@@ -4432,7 +4372,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.593376386579457</v>
+        <v>1.531511688519486</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.530973367479526</v>
@@ -4521,7 +4461,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.600500345179689</v>
+        <v>1.536556366344472</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.100038809244804</v>
@@ -4610,7 +4550,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.588529709610182</v>
+        <v>1.527438879090537</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.183520897254569</v>
@@ -4699,7 +4639,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584666264488454</v>
+        <v>1.516012356054198</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.472741468058804</v>
@@ -4788,7 +4728,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.589470857431455</v>
+        <v>1.508032382005499</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.313188730146916</v>
@@ -4877,7 +4817,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585490410107223</v>
+        <v>1.50295144000676</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.436409063118005</v>
@@ -4966,7 +4906,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.582916795139983</v>
+        <v>1.496794821901755</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.320525850299927</v>
@@ -5055,7 +4995,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.587465346381884</v>
+        <v>1.49956868887765</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.44469509576561</v>
@@ -5144,7 +5084,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.585120598492065</v>
+        <v>1.498894003238616</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.206638002331195</v>
@@ -5233,7 +5173,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.587704943449739</v>
+        <v>1.505177222530849</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.09744893486134</v>
@@ -5322,7 +5262,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.596370835788757</v>
+        <v>1.515827795986793</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.380720188995365</v>
@@ -5411,7 +5351,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.604447148575521</v>
+        <v>1.523850596039123</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.183162095439771</v>
@@ -5500,7 +5440,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.612560029238168</v>
+        <v>1.537345843878702</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.326944103546285</v>
@@ -5589,7 +5529,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.610817056505904</v>
+        <v>1.531092073670003</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.211461590981991</v>
@@ -5678,7 +5618,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.627730021122076</v>
+        <v>1.544306479297666</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.363398455412021</v>
@@ -5767,7 +5707,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.623460058934386</v>
+        <v>1.539719198731651</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.48062412767748</v>
@@ -5856,7 +5796,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.629978735169311</v>
+        <v>1.544161820881994</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.305302822591195</v>
@@ -5945,7 +5885,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.627781199813358</v>
+        <v>1.537763870073522</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.153976019957918</v>
@@ -6034,7 +5974,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.627965781928555</v>
+        <v>1.543880143139844</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.062687639644038</v>
@@ -6123,7 +6063,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.625831180274113</v>
+        <v>1.548857814076149</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.07402758458284</v>
@@ -6212,7 +6152,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.618205917546736</v>
+        <v>1.546723540709296</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.390263004500679</v>
@@ -6301,7 +6241,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.620841229830536</v>
+        <v>1.552412636717533</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.553278164290196</v>
@@ -6587,7 +6527,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.413701528405676</v>
+        <v>1.369522652840996</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.624931897361791</v>
@@ -6676,7 +6616,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.420576335983156</v>
+        <v>1.371144706869775</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.383848971475885</v>
@@ -6765,7 +6705,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.427164975719803</v>
+        <v>1.368298836155353</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.570534424024772</v>
@@ -6854,7 +6794,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.43183279681889</v>
+        <v>1.377560794051359</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.671914264752913</v>
@@ -6943,7 +6883,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.425399223848654</v>
+        <v>1.370421686676677</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.687623249024009</v>
@@ -7032,7 +6972,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.451692489429265</v>
+        <v>1.390772102903468</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.081231166703556</v>
@@ -7121,7 +7061,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.464881056787662</v>
+        <v>1.393557850158458</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.982915679055655</v>
@@ -7210,7 +7150,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.474762966535826</v>
+        <v>1.401900297882754</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.705607561015345</v>
@@ -7299,7 +7239,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.472014108780139</v>
+        <v>1.399364254014305</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.014066932086212</v>
@@ -7388,7 +7328,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.463548993437475</v>
+        <v>1.389922066793756</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.957094878678069</v>
@@ -7477,7 +7417,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.458499571073819</v>
+        <v>1.376422921298172</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.077533398409198</v>
@@ -7566,7 +7506,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.449142135507869</v>
+        <v>1.353722078510386</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.680721330643353</v>
@@ -7655,7 +7595,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.343462570033956</v>
+        <v>1.293673102424427</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.710760073489871</v>
@@ -7744,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.339022694199219</v>
+        <v>1.292503302453296</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.742123092290146</v>
@@ -7833,7 +7773,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.348829797631125</v>
+        <v>1.302064829009351</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.752967613588121</v>
@@ -7922,7 +7862,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.355475229839785</v>
+        <v>1.309371285025412</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.74659893798367</v>
@@ -8011,7 +7951,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.352302213821423</v>
+        <v>1.310407288463014</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.702630227475687</v>
@@ -8100,7 +8040,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.353018565544968</v>
+        <v>1.315693804211523</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.696591912132941</v>
@@ -8189,7 +8129,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.359543339273477</v>
+        <v>1.319840652506418</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.694956537310356</v>
@@ -8278,7 +8218,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.366731586189837</v>
+        <v>1.328579214085578</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.70531546846962</v>
@@ -8367,7 +8307,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.365694437492173</v>
+        <v>1.327743862364</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.687676076188157</v>
@@ -8456,7 +8396,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.366966129013937</v>
+        <v>1.333387605597488</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.70285781027154</v>
@@ -8545,7 +8485,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.37195316744826</v>
+        <v>1.33747964237916</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.667574777783912</v>
@@ -8634,7 +8574,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.379060170873065</v>
+        <v>1.344917899974305</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.685746884293344</v>
@@ -8723,7 +8663,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.381863065510981</v>
+        <v>1.349387173499255</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.666277598394288</v>
@@ -8812,7 +8752,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.385917328267768</v>
+        <v>1.362333060600469</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.698097649404299</v>
@@ -8901,7 +8841,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.491193762222369</v>
+        <v>1.454858255541467</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.510732506214384</v>
@@ -8990,7 +8930,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.58099235845488</v>
+        <v>1.520795354440132</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.620794644106053</v>
@@ -9079,7 +9019,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.591158295117816</v>
+        <v>1.52625646766709</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.923036797237284</v>
@@ -9168,7 +9108,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592708973239259</v>
+        <v>1.525410237248648</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.05956067585418</v>
@@ -9257,7 +9197,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575313493511314</v>
+        <v>1.50893188132435</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.811791402711032</v>
@@ -9346,7 +9286,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.580623223179406</v>
+        <v>1.51675235111683</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.785669819890414</v>
@@ -9435,7 +9375,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.575301727695474</v>
+        <v>1.510077550158987</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.755128695025675</v>
@@ -9524,7 +9464,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.571603022202091</v>
+        <v>1.508890783552221</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.000314178474049</v>
@@ -9613,7 +9553,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.562567208186159</v>
+        <v>1.491519481764689</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.996631609941101</v>
@@ -9702,7 +9642,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.563256651117518</v>
+        <v>1.486580975312283</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.956251309758114</v>
@@ -9791,7 +9731,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.565241644609322</v>
+        <v>1.490790828224218</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.866017439402476</v>
@@ -9880,7 +9820,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.553628371081415</v>
+        <v>1.481908050407826</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.985422199113081</v>
@@ -9969,7 +9909,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.551089843338082</v>
+        <v>1.48864548011738</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.808097974393891</v>
@@ -10058,7 +9998,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.545107194696408</v>
+        <v>1.484937379339634</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.996758122085083</v>
@@ -10147,7 +10087,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.540187330190969</v>
+        <v>1.4801392340027</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.844590471341145</v>
@@ -10236,7 +10176,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.553782484001666</v>
+        <v>1.491904353549606</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.774341916613349</v>
@@ -10325,7 +10265,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.567406197729893</v>
+        <v>1.51063559539829</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.812131064196615</v>
@@ -10414,7 +10354,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.57607098763432</v>
+        <v>1.523939912474624</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.919174665089775</v>
@@ -10503,7 +10443,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.580546501969133</v>
+        <v>1.527685319026332</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.940595722252526</v>
@@ -10592,7 +10532,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.603203104483045</v>
+        <v>1.547912384185362</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.958302525979336</v>
@@ -10681,7 +10621,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.59427647641493</v>
+        <v>1.539944123922449</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.977199522366957</v>
@@ -10770,7 +10710,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.592004452726449</v>
+        <v>1.5387428313738</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.977447324526971</v>
@@ -10859,7 +10799,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.586045416260726</v>
+        <v>1.534808472330785</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.787999450299743</v>
@@ -10948,7 +10888,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587942788719556</v>
+        <v>1.548455840744964</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.73473533501695</v>
@@ -11037,7 +10977,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.583818001235025</v>
+        <v>1.548539259281215</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.766575243118625</v>
@@ -11126,7 +11066,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.564886531511929</v>
+        <v>1.531461366762381</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.771359924583471</v>
@@ -11215,7 +11155,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.575024743869448</v>
+        <v>1.545315669252825</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.048108542089479</v>
@@ -11501,7 +11441,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.391568806803306</v>
+        <v>1.328909082645012</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.602310432155671</v>
@@ -11590,7 +11530,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.38966843830447</v>
+        <v>1.32556542600407</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.390208932204049</v>
@@ -11679,7 +11619,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.389369128521593</v>
+        <v>1.324560899418156</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.406401955136065</v>
@@ -11768,7 +11708,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.388514362449208</v>
+        <v>1.328180643956453</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.443232227765865</v>
@@ -11857,7 +11797,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.387790499199087</v>
+        <v>1.324885597415113</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.493496579289107</v>
@@ -11946,7 +11886,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.40161647324884</v>
+        <v>1.33363790398272</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.054644705224529</v>
@@ -12035,7 +11975,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.406016647639776</v>
+        <v>1.332190668116374</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.72763064772719</v>
@@ -12124,7 +12064,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.394281933808593</v>
+        <v>1.323283180453601</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.661603496402498</v>
@@ -12213,7 +12153,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.401403256531079</v>
+        <v>1.324991430595976</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.68164814440501</v>
@@ -12302,7 +12242,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.416322501912413</v>
+        <v>1.332964079448691</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.983410976216275</v>
@@ -12391,7 +12331,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.418097721024805</v>
+        <v>1.334444504832667</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.736631649226128</v>
@@ -12480,7 +12420,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.418682535360591</v>
+        <v>1.319860859167031</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.716215923665572</v>
@@ -12569,7 +12509,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.334667299299263</v>
+        <v>1.2806048770508</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.739789882607042</v>
@@ -12658,7 +12598,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.346313881367757</v>
+        <v>1.300043199069677</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.782011281728593</v>
@@ -12747,7 +12687,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.359489086147673</v>
+        <v>1.313040145432012</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.776056557190879</v>
@@ -12836,7 +12776,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.373692504684155</v>
+        <v>1.327434151063045</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.768734144607822</v>
@@ -12925,7 +12865,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.38189673311715</v>
+        <v>1.339056904501161</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.772992102169287</v>
@@ -13014,7 +12954,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.380341560768587</v>
+        <v>1.338415875330218</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.739954754463408</v>
@@ -13103,7 +13043,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.3822915462022</v>
+        <v>1.34075919984209</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.757748727657088</v>
@@ -13192,7 +13132,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.387854885161156</v>
+        <v>1.345825672306513</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.754179043856522</v>
@@ -13281,7 +13221,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.398817365765122</v>
+        <v>1.358455518750386</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.757105854532486</v>
@@ -13370,7 +13310,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.401015667101902</v>
+        <v>1.363028084500599</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.776048887893558</v>
@@ -13459,7 +13399,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.407172430269846</v>
+        <v>1.369464104757402</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.768805845384232</v>
@@ -13548,7 +13488,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.404452248040937</v>
+        <v>1.369282282629936</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.746015750567144</v>
@@ -13637,7 +13577,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.399209972865393</v>
+        <v>1.371697394174526</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.752481351857341</v>
@@ -13726,7 +13666,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.402225567656488</v>
+        <v>1.377425265543235</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.744808567040764</v>
@@ -13815,7 +13755,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.486917620003551</v>
+        <v>1.45650045229646</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.605200939099214</v>
@@ -13904,7 +13844,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.535988779853913</v>
+        <v>1.493627770431395</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.428901971335629</v>
@@ -13993,7 +13933,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.536640543162626</v>
+        <v>1.4858606812992</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.941845147013334</v>
@@ -14082,7 +14022,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.536882634962361</v>
+        <v>1.483551604011256</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.958316215101755</v>
@@ -14171,7 +14111,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.521297765912165</v>
+        <v>1.470058570536593</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.113126948067703</v>
@@ -14260,7 +14200,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.521639851771895</v>
+        <v>1.467780211202181</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.033777933725957</v>
@@ -14349,7 +14289,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.529576843291428</v>
+        <v>1.474774201416591</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.985434114703837</v>
@@ -14438,7 +14378,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536041268096462</v>
+        <v>1.481420523199183</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.736370537029862</v>
@@ -14527,7 +14467,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.5306871783034</v>
+        <v>1.47158823465251</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.839406272209958</v>
@@ -14616,7 +14556,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.507152138897385</v>
+        <v>1.447743859680508</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.965608841408834</v>
@@ -14705,7 +14645,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5078581100293</v>
+        <v>1.449942027123982</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.691555546769031</v>
@@ -14794,7 +14734,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.519171010287877</v>
+        <v>1.458116109735033</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.938524719583205</v>
@@ -14883,7 +14823,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.529261349088575</v>
+        <v>1.462337606579315</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.615538607602812</v>
@@ -14972,7 +14912,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.533428826819998</v>
+        <v>1.463949560300952</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.97379178386825</v>
@@ -15061,7 +15001,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.527565537454302</v>
+        <v>1.463369226168129</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.913412917467096</v>
@@ -15150,7 +15090,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.541761773161323</v>
+        <v>1.470136493308766</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.6842105140599</v>
@@ -15239,7 +15179,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.55699410222296</v>
+        <v>1.48211013321583</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.043908438624803</v>
@@ -15328,7 +15268,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.553891074460416</v>
+        <v>1.477779961593007</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.845874992674896</v>
@@ -15417,7 +15357,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.546376418502224</v>
+        <v>1.474553420341962</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.057264736638204</v>
@@ -15506,7 +15446,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.554462375010056</v>
+        <v>1.483909127771629</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.831971512865407</v>
@@ -15595,7 +15535,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.541965536647063</v>
+        <v>1.475253485241411</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.978612364002202</v>
@@ -15684,7 +15624,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.544160309110439</v>
+        <v>1.475647789242282</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.796510890562578</v>
@@ -15773,7 +15713,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.542471209040548</v>
+        <v>1.474460544516834</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.884925066839343</v>
@@ -15862,7 +15802,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.54391577675522</v>
+        <v>1.474807720387754</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.716496072384918</v>
@@ -15951,7 +15891,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.558294229666084</v>
+        <v>1.490701637043091</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.61534153215648</v>
@@ -16040,7 +15980,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.558073299364821</v>
+        <v>1.488130019947557</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.324378953936108</v>
@@ -16129,7 +16069,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.561769848381196</v>
+        <v>1.494802317969911</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.149292425757512</v>
@@ -16415,7 +16355,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.542042253932761</v>
+        <v>1.487570202945673</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.954425525798163</v>
@@ -16504,7 +16444,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.542456869831395</v>
+        <v>1.484894819359419</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.755903122321389</v>
@@ -16593,7 +16533,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.535970104597322</v>
+        <v>1.477371642155312</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.925948094387154</v>
@@ -16682,7 +16622,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.538277428489489</v>
+        <v>1.482095172454236</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.671749158640704</v>
@@ -16771,7 +16711,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.537438085150238</v>
+        <v>1.477600142208003</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.097960939527829</v>
@@ -16860,7 +16800,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.534729380430433</v>
+        <v>1.473466224665741</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.165056772014213</v>
@@ -16949,7 +16889,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.531262414308729</v>
+        <v>1.466165396608873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.061054244923708</v>
@@ -17038,7 +16978,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.528898954334541</v>
+        <v>1.46017847952735</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.810969738728814</v>
@@ -17127,7 +17067,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.531685496135157</v>
+        <v>1.459181302298881</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.205206337749761</v>
@@ -17216,7 +17156,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539052218871793</v>
+        <v>1.456012946499031</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.008040101822787</v>
@@ -17305,7 +17245,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.533335966039038</v>
+        <v>1.450121207737201</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.857353889184026</v>
@@ -17394,7 +17334,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.514417908872402</v>
+        <v>1.419871059718119</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.228451240043749</v>
@@ -17483,7 +17423,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.492738454558765</v>
+        <v>1.42106034707636</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.256189553186281</v>
@@ -17572,7 +17512,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.509443409956372</v>
+        <v>1.438571483072054</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.236105654626983</v>
@@ -17661,7 +17601,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.523158368379528</v>
+        <v>1.450215084454264</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.266511480633011</v>
@@ -17750,7 +17690,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.545618376032826</v>
+        <v>1.465880943673845</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.241197037623539</v>
@@ -17839,7 +17779,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549229653192204</v>
+        <v>1.470133319259157</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.179445167248251</v>
@@ -17928,7 +17868,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.553088245154478</v>
+        <v>1.480302584271021</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.217472773621806</v>
@@ -18017,7 +17957,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.552517421975879</v>
+        <v>1.476220481691962</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.2360975006842</v>
@@ -18106,7 +18046,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.556651435266659</v>
+        <v>1.482940679601979</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.233378514178774</v>
@@ -18195,7 +18135,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.558037479229212</v>
+        <v>1.483047855076867</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.230831446906933</v>
@@ -18284,7 +18224,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564929129011815</v>
+        <v>1.489568334116649</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.191683572972765</v>
@@ -18373,7 +18313,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.566349605534402</v>
+        <v>1.493679983877438</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.190255300812401</v>
@@ -18462,7 +18402,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.573739017389863</v>
+        <v>1.500147892008148</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.190829340879143</v>
@@ -18551,7 +18491,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.581910477548053</v>
+        <v>1.516063512811953</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.144628567858331</v>
@@ -18640,7 +18580,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.586955566262394</v>
+        <v>1.526284525324507</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.131063972099775</v>
@@ -18729,7 +18669,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.641134606561396</v>
+        <v>1.568892513032001</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.223244295106337</v>
@@ -18818,7 +18758,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639154394751392</v>
+        <v>1.559019298646242</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.017752308396771</v>
@@ -18907,7 +18847,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.626773134147848</v>
+        <v>1.545702249121694</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.379900045845789</v>
@@ -18996,7 +18936,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.628761400933161</v>
+        <v>1.542262328808362</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.109568436700175</v>
@@ -19085,7 +19025,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.608711362954237</v>
+        <v>1.532141418731757</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.284588045513529</v>
@@ -19174,7 +19114,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.607778560835224</v>
+        <v>1.529071855362363</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.341281897240886</v>
@@ -19263,7 +19203,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.616113743657563</v>
+        <v>1.529446663026982</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.353416393114783</v>
@@ -19352,7 +19292,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.613918833024705</v>
+        <v>1.525040833566128</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.170967310749096</v>
@@ -19441,7 +19381,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.608349133855636</v>
+        <v>1.509814925356746</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.198779885891722</v>
@@ -19530,7 +19470,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.599458520165391</v>
+        <v>1.503290836463831</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.238517202120914</v>
@@ -19619,7 +19559,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.591607180837336</v>
+        <v>1.492902199533942</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.311239073364753</v>
@@ -19708,7 +19648,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.595882698817282</v>
+        <v>1.493683046433924</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.069750384798826</v>
@@ -19797,7 +19737,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.589788660483204</v>
+        <v>1.480518292552718</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.256857863261029</v>
@@ -19886,7 +19826,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.593888035323934</v>
+        <v>1.484581248583453</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.336110988800566</v>
@@ -19975,7 +19915,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590649469959168</v>
+        <v>1.480478506330431</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.4701539004379</v>
@@ -20064,7 +20004,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.609409057677394</v>
+        <v>1.497454566748522</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.441598030481301</v>
@@ -20153,7 +20093,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.625176623908256</v>
+        <v>1.51471884463353</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.720406267071277</v>
@@ -20242,7 +20182,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.626375848971656</v>
+        <v>1.515127515195386</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.814818129554179</v>
@@ -20331,7 +20271,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623769742383724</v>
+        <v>1.509377508331165</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.47608839712271</v>
@@ -20420,7 +20360,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.634867291458538</v>
+        <v>1.516221689470505</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.633829794559233</v>
@@ -20509,7 +20449,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.630999656293189</v>
+        <v>1.520723309624548</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.586104720588898</v>
@@ -20598,7 +20538,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.619761680366311</v>
+        <v>1.512856917837032</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.394351644637733</v>
@@ -20687,7 +20627,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.626397196819027</v>
+        <v>1.523385211596894</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.251982280189983</v>
@@ -20776,7 +20716,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630060295261066</v>
+        <v>1.541676277395472</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.949266869205662</v>
@@ -20865,7 +20805,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.632167379307475</v>
+        <v>1.548924736060337</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.920254995235575</v>
@@ -20954,7 +20894,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.638815757768598</v>
+        <v>1.552697614189297</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.149458123068482</v>
@@ -21043,7 +20983,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.627406955278225</v>
+        <v>1.548649710999249</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.378426323218208</v>
@@ -21329,7 +21269,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.442407096489935</v>
+        <v>1.408494803878176</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.088251945330013</v>
@@ -21418,7 +21358,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.447927085876852</v>
+        <v>1.409891127777658</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.1102442629864</v>
@@ -21507,7 +21447,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.446055377987814</v>
+        <v>1.395546132720383</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.141959520140944</v>
@@ -21596,7 +21536,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.461461285633592</v>
+        <v>1.407855841160735</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.920829801516069</v>
@@ -21685,7 +21625,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.497490740121111</v>
+        <v>1.434823803298006</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.854044794040917</v>
@@ -21774,7 +21714,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.518340901236802</v>
+        <v>1.454205720238377</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.080956628210777</v>
@@ -21863,7 +21803,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.532569673394232</v>
+        <v>1.459495797731165</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.101588261883946</v>
@@ -21952,7 +21892,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.540531472955868</v>
+        <v>1.468347194689325</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.769106499017958</v>
@@ -22041,7 +21981,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.542186448424065</v>
+        <v>1.462477613323443</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.200271386069876</v>
@@ -22130,7 +22070,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.54694103482604</v>
+        <v>1.463469512431093</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.111841842493667</v>
@@ -22219,7 +22159,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.531924828668574</v>
+        <v>1.447054558113909</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.889858228578726</v>
@@ -22308,7 +22248,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.51689574305784</v>
+        <v>1.449186386500457</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.394357586878587</v>
@@ -22397,7 +22337,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.286451167370846</v>
+        <v>1.259910800766824</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.493310813877219</v>
@@ -22486,7 +22426,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.276517022520943</v>
+        <v>1.254773523542719</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.497428687125097</v>
@@ -22575,7 +22515,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.280946327324987</v>
+        <v>1.258233324409282</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.5003869634554</v>
@@ -22664,7 +22604,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.284311038785704</v>
+        <v>1.26362841075492</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.499396073177052</v>
@@ -22753,7 +22693,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.282297229290322</v>
+        <v>1.263328339448048</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.491033202458324</v>
@@ -22842,7 +22782,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.281852649716559</v>
+        <v>1.265555293123694</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.492078892196826</v>
@@ -22931,7 +22871,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.280678608281824</v>
+        <v>1.265203686156603</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.48890438509588</v>
@@ -23020,7 +22960,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.280917908075086</v>
+        <v>1.26426663949084</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.487242853591112</v>
@@ -23109,7 +23049,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.278032454499812</v>
+        <v>1.261676023947182</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.481330851279762</v>
@@ -23198,7 +23138,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.276189917017805</v>
+        <v>1.260464835229661</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.482646421518892</v>
@@ -23287,7 +23227,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.278663986180483</v>
+        <v>1.263614640282725</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.477680194612785</v>
@@ -23376,7 +23316,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.276496898510593</v>
+        <v>1.263418577650653</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.477482543910078</v>
@@ -23465,7 +23405,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.275050783302995</v>
+        <v>1.263012698806684</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.471494530753477</v>
@@ -23554,7 +23494,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.278983354281725</v>
+        <v>1.267722122374711</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.484806163057776</v>
@@ -23643,7 +23583,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.42271659128238</v>
+        <v>1.397699956342411</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.28358301561791</v>
@@ -23732,7 +23672,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.588589588521741</v>
+        <v>1.531807842379598</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.57913507583255</v>
@@ -23821,7 +23761,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.619355743358245</v>
+        <v>1.553342447407044</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.806507163597694</v>
@@ -23910,7 +23850,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.622360476926091</v>
+        <v>1.552931920519529</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.924077559518817</v>
@@ -23999,7 +23939,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.607070457334305</v>
+        <v>1.538007504206673</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.894746721270272</v>
@@ -24088,7 +24028,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.610297386887508</v>
+        <v>1.54529021241099</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.729349102415139</v>
@@ -24177,7 +24117,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.613012528001359</v>
+        <v>1.549506471671656</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.949691708067522</v>
@@ -24266,7 +24206,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614376534564755</v>
+        <v>1.550335213671238</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.817153724701757</v>
@@ -24355,7 +24295,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.623716966344602</v>
+        <v>1.555691744362081</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.803950171764073</v>
@@ -24444,7 +24384,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.622270644506584</v>
+        <v>1.547231585601032</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.685974601223631</v>
@@ -24533,7 +24473,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622089496030828</v>
+        <v>1.552176950923292</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.87117118717089</v>
@@ -24622,7 +24562,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.60673984688886</v>
+        <v>1.541552531704318</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.9571364540417</v>
@@ -24711,7 +24651,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.615577319290621</v>
+        <v>1.551913734689679</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.832199846042025</v>
@@ -24800,7 +24740,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.622236942823471</v>
+        <v>1.562372279959977</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.851820497481353</v>
@@ -24889,7 +24829,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.633216849285381</v>
+        <v>1.572429800779227</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.701417825267802</v>
@@ -24978,7 +24918,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.636568669455075</v>
+        <v>1.581535001233892</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.85687478402322</v>
@@ -25067,7 +25007,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.655466114592141</v>
+        <v>1.594840971937492</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.33530750490547</v>
@@ -25156,7 +25096,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.659712498696365</v>
+        <v>1.597085866141366</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.549100140587474</v>
@@ -25245,7 +25185,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.660033908947673</v>
+        <v>1.595705191003667</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.382902231472608</v>
@@ -25334,7 +25274,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.668730841361934</v>
+        <v>1.60489696569475</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.5972094909291</v>
@@ -25423,7 +25363,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.668341287068888</v>
+        <v>1.602783263702926</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.445193570087641</v>
@@ -25512,7 +25452,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.679079764796484</v>
+        <v>1.607703866096321</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.43680879085312</v>
@@ -25601,7 +25541,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.680435022220093</v>
+        <v>1.610259139614972</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.599500061252811</v>
@@ -25690,7 +25630,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.668783459368953</v>
+        <v>1.607752318663438</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.370400376040909</v>
@@ -25779,7 +25719,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.6741579984775</v>
+        <v>1.614907232658481</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.717759978270357</v>
@@ -25868,7 +25808,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.668991822386522</v>
+        <v>1.608765253224195</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.195612885059091</v>
@@ -25957,7 +25897,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.681692087374739</v>
+        <v>1.620482654664986</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.871826387182983</v>
@@ -26243,7 +26183,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.411741389845465</v>
+        <v>1.380975247233006</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.927462410137587</v>
@@ -26332,7 +26272,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.407127026484428</v>
+        <v>1.374443804860853</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.614981862093505</v>
@@ -26421,7 +26361,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.412099984429103</v>
+        <v>1.379566466641366</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.558658540212551</v>
@@ -26510,7 +26450,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.421223364830214</v>
+        <v>1.391477915649865</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.47129749396974</v>
@@ -26599,7 +26539,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.423849276549562</v>
+        <v>1.39299271180903</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.766759972494364</v>
@@ -26688,7 +26628,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.433135212005326</v>
+        <v>1.401472535065827</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.926747825113387</v>
@@ -26777,7 +26717,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.443831417202823</v>
+        <v>1.409041657034158</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.81524421715852</v>
@@ -26866,7 +26806,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.431962004134162</v>
+        <v>1.398386441218941</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.816660924794621</v>
@@ -26955,7 +26895,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.427533944052736</v>
+        <v>1.394149150489394</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.716176561002615</v>
@@ -27044,7 +26984,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.444706080165027</v>
+        <v>1.40344484052202</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.682967624955658</v>
@@ -27133,7 +27073,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.446262893242615</v>
+        <v>1.400356244186586</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.703372896446949</v>
@@ -27222,7 +27162,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.442702869675222</v>
+        <v>1.375504845688155</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.590944458384549</v>
@@ -27311,7 +27251,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.303164135767776</v>
+        <v>1.286916007760814</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.659001693025863</v>
@@ -27400,7 +27340,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.296327692365316</v>
+        <v>1.287963837545142</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.683528942186526</v>
@@ -27489,7 +27429,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.298052208758726</v>
+        <v>1.29017531767439</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.668591562780058</v>
@@ -27578,7 +27518,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.31001855832046</v>
+        <v>1.302044297962966</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.672121334640326</v>
@@ -27667,7 +27607,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.318780976939579</v>
+        <v>1.312778639881937</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.662983258656783</v>
@@ -27756,7 +27696,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.321985694592748</v>
+        <v>1.315211701946343</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.648903214538569</v>
@@ -27845,7 +27785,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.320210617392624</v>
+        <v>1.312718958327898</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.670126545207928</v>
@@ -27934,7 +27874,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.326031673893391</v>
+        <v>1.318706506027583</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.666335289848682</v>
@@ -28023,7 +27963,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.334579505303993</v>
+        <v>1.328209768173691</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.664453688606245</v>
@@ -28112,7 +28052,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.335760495061785</v>
+        <v>1.330819193772276</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.672668194886647</v>
@@ -28201,7 +28141,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.34210254702967</v>
+        <v>1.338895614989906</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.678671964693787</v>
@@ -28290,7 +28230,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.345447919165696</v>
+        <v>1.342908725555302</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.658435991609444</v>
@@ -28379,7 +28319,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.33710210693202</v>
+        <v>1.338985842928155</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.675479884708863</v>
@@ -28468,7 +28408,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.341699961408757</v>
+        <v>1.349222399165699</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.695259988689968</v>
@@ -28557,7 +28497,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.420757548557072</v>
+        <v>1.429135169923736</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.480484316545766</v>
@@ -28646,7 +28586,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.555993625778979</v>
+        <v>1.542990318632081</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.890865902243201</v>
@@ -28735,7 +28675,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.581451165183483</v>
+        <v>1.55803962527576</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.901721512543598</v>
@@ -28824,7 +28764,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592413024078528</v>
+        <v>1.566641713127301</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.116124547931571</v>
@@ -28913,7 +28853,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.583503971281382</v>
+        <v>1.558261515633165</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.895361178029954</v>
@@ -29002,7 +28942,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.580070777339375</v>
+        <v>1.550798315835509</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.985441870298261</v>
@@ -29091,7 +29031,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.584249609852216</v>
+        <v>1.558341984408242</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.696105383518172</v>
@@ -29180,7 +29120,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.603766405545906</v>
+        <v>1.577572311866244</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.047607440841398</v>
@@ -29269,7 +29209,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.606269120336502</v>
+        <v>1.580158225872597</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.954544888855841</v>
@@ -29358,7 +29298,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.590977312125966</v>
+        <v>1.566336747523714</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.834877466368527</v>
@@ -29447,7 +29387,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605069750896768</v>
+        <v>1.579894510010854</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.066017730396961</v>
@@ -29536,7 +29476,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.615855374595226</v>
+        <v>1.591240793356074</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.996265826577125</v>
@@ -29625,7 +29565,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.640014446620214</v>
+        <v>1.611213673145953</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.666274923552752</v>
@@ -29714,7 +29654,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.67238149797496</v>
+        <v>1.633480848903983</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.006995085557748</v>
@@ -29803,7 +29743,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.668915535971278</v>
+        <v>1.631861608913448</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.184009342141927</v>
@@ -29892,7 +29832,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.681028280254793</v>
+        <v>1.642547009749104</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.123743281707057</v>
@@ -29981,7 +29921,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.690808011026164</v>
+        <v>1.6515351190622</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.006280889130413</v>
@@ -30070,7 +30010,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.689885393094708</v>
+        <v>1.653680983382394</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.335358838654153</v>
@@ -30159,7 +30099,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.691678772843586</v>
+        <v>1.660147946971881</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.222195221523059</v>
@@ -30248,7 +30188,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.721569504415035</v>
+        <v>1.686297694915619</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.520202897169666</v>
@@ -30337,7 +30277,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.717197402556289</v>
+        <v>1.689568902583396</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.2442751607595</v>
@@ -30426,7 +30366,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.720474277568658</v>
+        <v>1.693553310537518</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.396469357869238</v>
@@ -30515,7 +30455,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.716528873456537</v>
+        <v>1.694756859916056</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.328243961224961</v>
@@ -30604,7 +30544,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.711964535894738</v>
+        <v>1.694157455546835</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.338446010680217</v>
@@ -30693,7 +30633,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.717929132078795</v>
+        <v>1.697286336099317</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.338996017847357</v>
@@ -30782,7 +30722,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.714337290731866</v>
+        <v>1.690746508666478</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.433120487596522</v>
@@ -30871,7 +30811,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.725094043926243</v>
+        <v>1.696485910894484</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.94344039729363</v>
